--- a/docs/Objets.xlsx
+++ b/docs/Objets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CDA-11\Desktop\Projet\jdr2d\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A655A8F-8B86-43E6-B4A0-60FDBC6E8373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B47F89-EED8-4086-8508-8806E09C1BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="226">
   <si>
     <t>id_objet</t>
   </si>
@@ -602,24 +602,6 @@
     <t>Prix</t>
   </si>
   <si>
-    <t>Fusil légendaire de Lorraine, capable d"envoyer des fuseaux a 50 km/h</t>
-  </si>
-  <si>
-    <t>Ajouter du basilic, de l"ail et des François pignon et du parmesan on obtient cette arme légendaire</t>
-  </si>
-  <si>
-    <t>Apparut en Alsace pendant la période des spaetzle du cervelas et de la choucroute en l"an 69</t>
-  </si>
-  <si>
-    <t>Mais qui l"a mise à l"envers ?</t>
-  </si>
-  <si>
-    <t>Mi porc, mi ours, mi homme,,, Je m"égare il est seulement mi table</t>
-  </si>
-  <si>
-    <t>Le fruit qui résume bien la situation " l"abricôt"</t>
-  </si>
-  <si>
     <t>C''est comme le jagermeister mais en plus mauvais</t>
   </si>
   <si>
@@ -657,6 +639,78 @@
   </si>
   <si>
     <t>/2 vitesse d''attaque</t>
+  </si>
+  <si>
+    <t>objet de quetes</t>
+  </si>
+  <si>
+    <t>houblon</t>
+  </si>
+  <si>
+    <t>fut</t>
+  </si>
+  <si>
+    <t>sachet</t>
+  </si>
+  <si>
+    <t>Décor</t>
+  </si>
+  <si>
+    <t>mur</t>
+  </si>
+  <si>
+    <t>banc</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>fleurs</t>
+  </si>
+  <si>
+    <t>rochers</t>
+  </si>
+  <si>
+    <t>lampadaire</t>
+  </si>
+  <si>
+    <t>statue</t>
+  </si>
+  <si>
+    <t>tente</t>
+  </si>
+  <si>
+    <t>fontaine</t>
+  </si>
+  <si>
+    <t>petite maison</t>
+  </si>
+  <si>
+    <t>mur de berlin</t>
+  </si>
+  <si>
+    <t>seau</t>
+  </si>
+  <si>
+    <t>clôture</t>
+  </si>
+  <si>
+    <t>Fusil légendaire de Lorraine, capable d'envoyer des fuseaux a 50 km/h</t>
+  </si>
+  <si>
+    <t>Ajouter du basilic, de l''ail et des François pignon et du parmesan on obtient cette arme légendaire</t>
+  </si>
+  <si>
+    <t>Apparut en Alsace pendant la période des spaetzle du cervelas et de la choucroute en l''an 69</t>
+  </si>
+  <si>
+    <t>Mais qui l''a mise à l''envers ?</t>
+  </si>
+  <si>
+    <t>Mi porc, mi ours, mi homme,,, Je m''égare il est seulement mi table</t>
+  </si>
+  <si>
+    <t>Le fruit qui résume bien la situation '' l''abricôt''</t>
   </si>
 </sst>
 </file>
@@ -707,7 +761,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -715,11 +769,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -734,6 +806,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1014,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K73" sqref="K2:K73"/>
+    <sheetView tabSelected="1" topLeftCell="I41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O72" sqref="O72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,12 +1112,12 @@
     <col min="12" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="22" style="1" customWidth="1"/>
+    <col min="15" max="15" width="52.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.42578125" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1071,7 +1149,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,13 +1166,13 @@
         <v>154</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -1104,10 +1182,14 @@
       </c>
       <c r="K2" s="1" t="str">
         <f>"("&amp;C2&amp;",'"&amp;D2&amp;"','"&amp;E2&amp;"',"&amp;F2&amp;","&amp;G2&amp;",'"&amp;H2&amp;"','"&amp;I2&amp;"',"&amp;J2&amp;","&amp;B2&amp;"),"</f>
-        <v>(1,'fusil Lorrain','+1 force',true,true,'Fusil légendaire de Lorraine, capable d"envoyer des fuseaux a 50 km/h','0',1,1),</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>(1,'fusil Lorrain','+1 force',true,true,'Fusil légendaire de Lorraine, capable d'envoyer des fuseaux a 50 km/h','0',1,1),</v>
+      </c>
+      <c r="O2" s="1" t="str">
+        <f>"('"&amp;H2&amp;"'),"</f>
+        <v>('Fusil légendaire de Lorraine, capable d'envoyer des fuseaux a 50 km/h'),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -1115,16 +1197,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>155</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>93</v>
@@ -1140,8 +1222,12 @@
         <f t="shared" ref="K3:K66" si="0">"("&amp;C3&amp;",'"&amp;D3&amp;"','"&amp;E3&amp;"',"&amp;F3&amp;","&amp;G3&amp;",'"&amp;H3&amp;"','"&amp;I3&amp;"',"&amp;J3&amp;","&amp;B3&amp;"),"</f>
         <v>(2,'paprik''arme','+2 force',true,true,'Le piment le plus fort de tous les héros','0',2,1),</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O3" s="1" t="str">
+        <f t="shared" ref="O3:O66" si="1">"('"&amp;H3&amp;"'),"</f>
+        <v>('Le piment le plus fort de tous les héros'),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -1155,10 +1241,10 @@
         <v>156</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>94</v>
@@ -1167,15 +1253,19 @@
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J44" si="1">J3+1</f>
+        <f t="shared" ref="J4:J44" si="2">J3+1</f>
         <v>3</v>
       </c>
       <c r="K4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>(3,'lance saucisse','+3 force',true,true,'De son vrai nom große würst','0',3,1),</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('De son vrai nom große würst'),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -1189,10 +1279,10 @@
         <v>157</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>95</v>
@@ -1201,15 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="K5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>(4,'Patator','+4 force',true,true,'Le traditionnel lance patate Russe utiliser par Poutine en Ukraine','0',4,1),</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Le traditionnel lance patate Russe utiliser par Poutine en Ukraine'),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1</v>
       </c>
@@ -1223,10 +1317,10 @@
         <v>158</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>96</v>
@@ -1235,15 +1329,19 @@
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>(5,'arbalais','+5 force',true,true,'Monsieur Potter, merci de ramener le balais','0',5,1),</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Monsieur Potter, merci de ramener le balais'),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>1</v>
       </c>
@@ -1257,10 +1355,10 @@
         <v>159</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>118</v>
@@ -1269,15 +1367,19 @@
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>(6,'la boule de petoncle','+6 force',true,true,'Célébre boule du comédon Cousteau','0',6,1),</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Célébre boule du comédon Cousteau'),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>1</v>
       </c>
@@ -1291,27 +1393,31 @@
         <v>160</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="K8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>(7,'pestolet','+7 force',true,true,'Ajouter du basilic, de l"ail et des François pignon et du parmesan on obtient cette arme légendaire','0',7,1),</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>(7,'pestolet','+7 force',true,true,'Ajouter du basilic, de l''ail et des François pignon et du parmesan on obtient cette arme légendaire','0',7,1),</v>
+      </c>
+      <c r="O8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Ajouter du basilic, de l''ail et des François pignon et du parmesan on obtient cette arme légendaire'),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
@@ -1328,13 +1434,13 @@
         <v>155</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -1344,10 +1450,14 @@
       </c>
       <c r="K9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>(8,'couperet bretzel','+2 force',true,true,'Apparut en Alsace pendant la période des spaetzle du cervelas et de la choucroute en l"an 69','0',1,2),</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>(8,'couperet bretzel','+2 force',true,true,'Apparut en Alsace pendant la période des spaetzle du cervelas et de la choucroute en l''an 69','0',1,2),</v>
+      </c>
+      <c r="O9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Apparut en Alsace pendant la période des spaetzle du cervelas et de la choucroute en l''an 69'),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>2</v>
       </c>
@@ -1361,10 +1471,10 @@
         <v>157</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>97</v>
@@ -1373,15 +1483,19 @@
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>(9,'rôtisseur','+4 force',true,true,'Célèbre arme du colonel Sander','0',2,2),</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Célèbre arme du colonel Sander'),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>2</v>
       </c>
@@ -1395,10 +1509,10 @@
         <v>159</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>98</v>
@@ -1407,15 +1521,19 @@
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="K11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>(10,'la pelle forte','+6 force',true,true,'Merci Berny pour votre invention autoroutiere','0',3,2),</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Merci Berny pour votre invention autoroutiere'),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>2</v>
       </c>
@@ -1429,10 +1547,10 @@
         <v>161</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>102</v>
@@ -1441,15 +1559,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="K12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>(11,'batte ail','+8 force',true,true,'Arme favorite de Blade','0',4,2),</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Arme favorite de Blade'),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>2</v>
       </c>
@@ -1463,10 +1585,10 @@
         <v>162</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>103</v>
@@ -1475,15 +1597,19 @@
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>(12,'la fausse croix','+10 force',true,true,'Arme légendaire de nazareth','0',5,2),</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Arme légendaire de nazareth'),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>104</v>
       </c>
@@ -1500,10 +1626,10 @@
         <v>154</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>105</v>
@@ -1518,8 +1644,12 @@
         <f t="shared" si="0"/>
         <v>(13,'poing chope','+1 force',true,true,'Mélange entre chopine et poing ricain','0',2,3),</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Mélange entre chopine et poing ricain'),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>3</v>
       </c>
@@ -1533,27 +1663,31 @@
         <v>155</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="K15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>(14,'dague Ober','+2 force',true,true,'Mais qui l"a mise à l"envers ?','0',3,3),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>(14,'dague Ober','+2 force',true,true,'Mais qui l''a mise à l''envers ?','0',3,3),</v>
+      </c>
+      <c r="O15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Mais qui l''a mise à l''envers ?'),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>3</v>
       </c>
@@ -1567,10 +1701,10 @@
         <v>156</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>106</v>
@@ -1579,15 +1713,19 @@
         <v>0</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="K16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>(15,'couilletau','+3 force',true,true,'Crustacé qui sent la marais','0',4,3),</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Crustacé qui sent la marais'),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>3</v>
       </c>
@@ -1601,10 +1739,10 @@
         <v>157</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>107</v>
@@ -1613,15 +1751,19 @@
         <v>0</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>(16,'dardvador','+4 force',true,true,'Aussi rouge que le sabre','0',5,3),</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Aussi rouge que le sabre'),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>3</v>
       </c>
@@ -1635,27 +1777,31 @@
         <v>158</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>(17,'porc table','+5 force',true,true,'Mi porc, mi ours, mi homme,,, Je m"égare il est seulement mi table','0',6,3),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>(17,'porc table','+5 force',true,true,'Mi porc, mi ours, mi homme,,, Je m''égare il est seulement mi table','0',6,3),</v>
+      </c>
+      <c r="O18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Mi porc, mi ours, mi homme,,, Je m''égare il est seulement mi table'),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>3</v>
       </c>
@@ -1669,10 +1815,10 @@
         <v>161</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>149</v>
@@ -1681,15 +1827,19 @@
         <v>0</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="K19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>(18,'jason tatane','+8 force',true,true,'Pour les puristes de la bagarre','0',7,3),</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Pour les puristes de la bagarre'),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1706,10 +1856,10 @@
         <v>164</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>108</v>
@@ -1724,8 +1874,12 @@
         <f t="shared" si="0"/>
         <v>(19,'bonnet m','+1 agilité',true,true,'Le sugar daddy cool des chapias','0',1,4),</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Le sugar daddy cool des chapias'),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>4</v>
       </c>
@@ -1739,10 +1893,10 @@
         <v>165</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>169</v>
@@ -1751,15 +1905,19 @@
         <v>0</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>(20,'casquette a pointe','+2 agilité',true,true,'Célèbre casquette germanique, utilisée dans les concours de lancer de pomme','0',2,4),</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Célèbre casquette germanique, utilisée dans les concours de lancer de pomme'),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>4</v>
       </c>
@@ -1773,10 +1931,10 @@
         <v>166</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>109</v>
@@ -1785,15 +1943,19 @@
         <v>0</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="K22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>(21,'k-lotte','+3 agilité',true,true,'Arme célèbre de la confrérie Lopez, 100% cuivre','0',3,4),</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Arme célèbre de la confrérie Lopez, 100% cuivre'),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>4</v>
       </c>
@@ -1807,10 +1969,10 @@
         <v>167</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>110</v>
@@ -1819,15 +1981,19 @@
         <v>0</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="K23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>(22,'kippab','+4 agilité',true,true,'Salade tomate oignon du chapeau ','0',4,4),</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Salade tomate oignon du chapeau '),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>4</v>
       </c>
@@ -1841,27 +2007,31 @@
         <v>168</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>(23,'baie raie','+5 agilité',true,true,'Le fruit qui résume bien la situation " l"abricôt"','0',5,4),</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>(23,'baie raie','+5 agilité',true,true,'Le fruit qui résume bien la situation '' l''abricôt''','0',5,4),</v>
+      </c>
+      <c r="O24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Le fruit qui résume bien la situation '' l''abricôt'''),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
@@ -1872,16 +2042,16 @@
         <v>24</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>164</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>111</v>
@@ -1896,8 +2066,12 @@
         <f t="shared" si="0"/>
         <v>(24,'plas''thon','+1 agilité',true,true,'Construite en boite de petit navire','0',2,5),</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Construite en boite de petit navire'),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>5</v>
       </c>
@@ -1905,16 +2079,16 @@
         <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>165</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>112</v>
@@ -1923,15 +2097,19 @@
         <v>0</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="K26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>(25,'plas''tèque','+2 agilité',true,true,'Manger 5 fruits et légumes par jours','0',3,5),</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Manger 5 fruits et légumes par jours'),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>5</v>
       </c>
@@ -1945,10 +2123,10 @@
         <v>166</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>113</v>
@@ -1957,15 +2135,19 @@
         <v>0</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="K27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>(26,'côte de beauf','+3 agilité',true,true,'Parfait pour les soirées tuning','0',4,5),</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Parfait pour les soirées tuning'),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>5</v>
       </c>
@@ -1973,16 +2155,16 @@
         <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>167</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>114</v>
@@ -1991,15 +2173,19 @@
         <v>0</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>(27,'l''ainée','+4 agilité',true,true,'Allez voir sur wikipédia','0',5,5),</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Allez voir sur wikipédia'),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>5</v>
       </c>
@@ -2013,10 +2199,10 @@
         <v>168</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>115</v>
@@ -2025,15 +2211,19 @@
         <v>0</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>(28,'pull ovaire','+5 agilité',true,true,'Bien mieu que le col roulé','0',6,5),</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Bien mieu que le col roulé'),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
@@ -2050,10 +2240,10 @@
         <v>164</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>116</v>
@@ -2068,8 +2258,12 @@
         <f t="shared" si="0"/>
         <v>(29,'gants stères','+1 agilité',true,true,'Parfait pour ramasser le bois','0',1,6),</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Parfait pour ramasser le bois'),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>6</v>
       </c>
@@ -2083,10 +2277,10 @@
         <v>165</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>117</v>
@@ -2095,15 +2289,19 @@
         <v>0</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>(30,'mie Teigne','+2 agilité',true,true,'Boulanger tétu de renommé','0',2,6),</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Boulanger tétu de renommé'),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>6</v>
       </c>
@@ -2117,10 +2315,10 @@
         <v>166</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>119</v>
@@ -2129,15 +2327,19 @@
         <v>0</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="K32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>(31,'bollet rouge','+3 agilité',true,true,'Célébre coiffe du comédon Cousteau','0',3,6),</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Célébre coiffe du comédon Cousteau'),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>6</v>
       </c>
@@ -2151,10 +2353,10 @@
         <v>167</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>120</v>
@@ -2163,15 +2365,19 @@
         <v>0</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="K33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>(32,'croque mie teigne','+4 agilité',true,true,'Croque monsieur du boulanger','0',4,6),</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Croque monsieur du boulanger'),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>6</v>
       </c>
@@ -2185,10 +2391,10 @@
         <v>168</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>121</v>
@@ -2197,15 +2403,19 @@
         <v>0</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>(33,'gant de toilette','+5 agilité',true,true,'Progéniture de Servietski','0',5,6),</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Progéniture de Servietski'),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>58</v>
       </c>
@@ -2222,10 +2432,10 @@
         <v>164</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>122</v>
@@ -2240,8 +2450,12 @@
         <f t="shared" si="0"/>
         <v>(34,'bretelle','+1 agilité',true,true,'Et porte jartelle','0',2,7),</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Et porte jartelle'),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>7</v>
       </c>
@@ -2255,10 +2469,10 @@
         <v>165</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>123</v>
@@ -2267,15 +2481,19 @@
         <v>0</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="K36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>(35,'bas thon','+2 agilité',true,true,'Le leggings du comédon Cousteau','0',3,7),</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Le leggings du comédon Cousteau'),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>7</v>
       </c>
@@ -2289,10 +2507,10 @@
         <v>166</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>124</v>
@@ -2301,15 +2519,19 @@
         <v>0</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="K37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>(36,'benne laden','+3 agilité',true,true,'Enfilez vos deux jambes dedans','0',4,7),</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Enfilez vos deux jambes dedans'),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>7</v>
       </c>
@@ -2323,10 +2545,10 @@
         <v>167</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>101</v>
@@ -2335,15 +2557,19 @@
         <v>0</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>(37,'beer muda','+4 agilité',true,true,'Mi jaune mi blanc','0',5,7),</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Mi jaune mi blanc'),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>7</v>
       </c>
@@ -2357,10 +2583,10 @@
         <v>168</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>125</v>
@@ -2369,15 +2595,19 @@
         <v>0</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K39" s="1" t="str">
         <f t="shared" si="0"/>
         <v>(38,'fûtal','+5 agilité',true,true,'Parfait pour protéger votre trou du fût','0',6,7),</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Parfait pour protéger votre trou du fût'),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>59</v>
       </c>
@@ -2394,10 +2624,10 @@
         <v>164</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>126</v>
@@ -2412,8 +2642,12 @@
         <f t="shared" si="0"/>
         <v>(39,'crocs','+1 agilité',true,true,'Style hollandais, chaussette claquette','0',1,8),</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Style hollandais, chaussette claquette'),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>8</v>
       </c>
@@ -2427,10 +2661,10 @@
         <v>165</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>127</v>
@@ -2439,15 +2673,19 @@
         <v>0</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>(40,'bas bouche','+2 agilité',true,true,'Babooshka, babooshka, babooshka ja, ja','0',2,8),</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Babooshka, babooshka, babooshka ja, ja'),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>8</v>
       </c>
@@ -2461,10 +2699,10 @@
         <v>166</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>99</v>
@@ -2473,15 +2711,19 @@
         <v>0</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="K42" s="1" t="str">
         <f t="shared" si="0"/>
         <v>(41,'adaddas','+3 agilité',true,true,'Des contre façons efficaces','0',3,8),</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Des contre façons efficaces'),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>8</v>
       </c>
@@ -2495,10 +2737,10 @@
         <v>167</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>100</v>
@@ -2507,15 +2749,19 @@
         <v>0</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="K43" s="1" t="str">
         <f t="shared" si="0"/>
         <v>(42,'les talons','+4 agilité',true,true,'Dixit the Italian Stallion','0',4,8),</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Dixit the Italian Stallion'),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>8</v>
       </c>
@@ -2529,27 +2775,31 @@
         <v>168</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="I44" s="1">
         <v>0</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K44" s="1" t="str">
         <f t="shared" si="0"/>
         <v>(43,'musse tongue','+5 agilité',true,true,'Aussi rapide que l''original','0',5,8),</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Aussi rapide que l''original'),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>60</v>
       </c>
@@ -2566,10 +2816,10 @@
         <v>30</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>128</v>
@@ -2585,8 +2835,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>(44,'pinte','+2 esquive',true,true,'Je vous remettrais bien la petite sœur?','0',2,9),</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Je vous remettrais bien la petite sœur?'),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>9</v>
       </c>
@@ -2600,10 +2854,10 @@
         <v>170</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>129</v>
@@ -2612,15 +2866,19 @@
         <v>0</v>
       </c>
       <c r="J46" s="1">
-        <f t="shared" ref="J46:J72" ca="1" si="2">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <f t="shared" ref="J46:J72" ca="1" si="3">RANDBETWEEN(1,3)</f>
+        <v>3</v>
       </c>
       <c r="K46" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(45,'tord boyaux','+50 mana / -50 pv',true,true,'Très utile pour les nœuds de huit','0',1,9),</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>(45,'tord boyaux','+50 mana / -50 pv',true,true,'Très utile pour les nœuds de huit','0',3,9),</v>
+      </c>
+      <c r="O46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Très utile pour les nœuds de huit'),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>9</v>
       </c>
@@ -2634,10 +2892,10 @@
         <v>171</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>131</v>
@@ -2646,15 +2904,19 @@
         <v>0</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="K47" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(46,'Sheba','+50 pv / -50 mana',true,true,'Alain sheba, un gros nul','0',2,9),</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>(46,'Sheba','+50 pv / -50 mana',true,true,'Alain sheba, un gros nul','0',1,9),</v>
+      </c>
+      <c r="O47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Alain sheba, un gros nul'),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>9</v>
       </c>
@@ -2668,10 +2930,10 @@
         <v>174</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>132</v>
@@ -2680,15 +2942,19 @@
         <v>0</v>
       </c>
       <c r="J48" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="K48" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>(47,'shot','+25 pv',true,true,'Boisson chaude de charlie Sheen','0',1,9),</v>
       </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="O48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Boisson chaude de charlie Sheen'),</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>9</v>
       </c>
@@ -2702,10 +2968,10 @@
         <v>175</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>133</v>
@@ -2714,15 +2980,19 @@
         <v>0</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="K49" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(48,'grogs','+50 pv',true,true,'Recette mythique des mère grand','0',1,9),</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+        <v>(48,'grogs','+50 pv',true,true,'Recette mythique des mère grand','0',2,9),</v>
+      </c>
+      <c r="O49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Recette mythique des mère grand'),</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>9</v>
       </c>
@@ -2736,10 +3006,10 @@
         <v>61</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>134</v>
@@ -2748,15 +3018,19 @@
         <v>0</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="K50" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(49,'polonium','+25 mana',true,true,'Très prisé en Russie actuellement','0',3,9),</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+        <v>(49,'polonium','+25 mana',true,true,'Très prisé en Russie actuellement','0',2,9),</v>
+      </c>
+      <c r="O50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Très prisé en Russie actuellement'),</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>9</v>
       </c>
@@ -2770,10 +3044,10 @@
         <v>29</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>135</v>
@@ -2782,15 +3056,19 @@
         <v>0</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="K51" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(50,'muscat death','-50 mana',true,true,'Tu bois tu meurts','0',2,9),</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+        <v>(50,'muscat death','-50 mana',true,true,'Tu bois tu meurts','0',1,9),</v>
+      </c>
+      <c r="O51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Tu bois tu meurts'),</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>9</v>
       </c>
@@ -2804,10 +3082,10 @@
         <v>75</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>136</v>
@@ -2816,15 +3094,19 @@
         <v>0</v>
       </c>
       <c r="J52" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="K52" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>(51,'houmous tache','-2 dodge',true,true,'Repas favoris de Staline','0',2,9),</v>
       </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="O52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Repas favoris de Staline'),</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>9</v>
       </c>
@@ -2838,10 +3120,10 @@
         <v>76</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>137</v>
@@ -2850,15 +3132,19 @@
         <v>0</v>
       </c>
       <c r="J53" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="K53" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(52,'tsar tziki','-5 dodge',true,true,'Sauce favorite de Lenine','0',3,9),</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+        <v>(52,'tsar tziki','-5 dodge',true,true,'Sauce favorite de Lenine','0',1,9),</v>
+      </c>
+      <c r="O53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Sauce favorite de Lenine'),</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>9</v>
       </c>
@@ -2872,10 +3158,10 @@
         <v>63</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>138</v>
@@ -2884,15 +3170,19 @@
         <v>0</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="K54" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(53,'potion magique','/2 magic',true,true,'Remet les idées fixes','0',2,9),</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+        <v>(53,'potion magique','/2 magic',true,true,'Remet les idées fixes','0',1,9),</v>
+      </c>
+      <c r="O54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Remet les idées fixes'),</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>9</v>
       </c>
@@ -2906,27 +3196,31 @@
         <v>172</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I55" s="1">
         <v>0</v>
       </c>
       <c r="J55" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="K55" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(54,'asperule','/2 pv',true,true,'C''est comme le jagermeister mais en plus mauvais','0',2,9),</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+        <v>(54,'asperule','/2 pv',true,true,'C''est comme le jagermeister mais en plus mauvais','0',1,9),</v>
+      </c>
+      <c r="O55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('C''est comme le jagermeister mais en plus mauvais'),</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>9</v>
       </c>
@@ -2940,10 +3234,10 @@
         <v>62</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>139</v>
@@ -2952,15 +3246,19 @@
         <v>0</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="K56" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>(55,'sauce dallas','*2 magic',true,true,'Sur les boulettes ?','0',3,9),</v>
       </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="O56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Sur les boulettes ?'),</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>9</v>
       </c>
@@ -2974,10 +3272,10 @@
         <v>163</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>140</v>
@@ -2986,15 +3284,19 @@
         <v>0</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="K57" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(56,'sauce biggy','*2 force',true,true,'Avec ou sans frites ?','0',1,9),</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+        <v>(56,'sauce biggy','*2 force',true,true,'Avec ou sans frites ?','0',3,9),</v>
+      </c>
+      <c r="O57" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Avec ou sans frites ?'),</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>9</v>
       </c>
@@ -3008,10 +3310,10 @@
         <v>173</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>141</v>
@@ -3020,15 +3322,19 @@
         <v>0</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="K58" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(57,'sauce hannibal','*2 pv',true,true,'Pour les Lecter vegan','0',2,9),</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+        <v>(57,'sauce hannibal','*2 pv',true,true,'Pour les Lecter vegan','0',3,9),</v>
+      </c>
+      <c r="O58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Pour les Lecter vegan'),</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>9</v>
       </c>
@@ -3042,10 +3348,10 @@
         <v>77</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>150</v>
@@ -3054,15 +3360,19 @@
         <v>0</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="K59" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>(58,'sauce blanche','*2 dodge',true,true,'Très populaire chez les albinos du RN','0',1,9),</v>
       </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="O59" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Très populaire chez les albinos du RN'),</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>9</v>
       </c>
@@ -3076,10 +3386,10 @@
         <v>73</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>142</v>
@@ -3088,15 +3398,19 @@
         <v>0</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="K60" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>(59,'barbie turique','poisoned',true,true,'Le Ken lubrique','0',2,9),</v>
       </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="O60" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Le Ken lubrique'),</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>9</v>
       </c>
@@ -3110,10 +3424,10 @@
         <v>74</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>143</v>
@@ -3122,15 +3436,19 @@
         <v>0</v>
       </c>
       <c r="J61" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="K61" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(60,'amnesia','stunt',true,true,'A ne surtout pas fumer','0',1,9),</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+        <v>(60,'amnesia','stunt',true,true,'A ne surtout pas fumer','0',2,9),</v>
+      </c>
+      <c r="O61" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('A ne surtout pas fumer'),</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>9</v>
       </c>
@@ -3144,27 +3462,31 @@
         <v>71</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I62" s="1">
         <v>0</v>
       </c>
       <c r="J62" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="K62" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(61,'algoflash','blind',true,true,'L''algorithme de toto','0',3,9),</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+        <v>(61,'algoflash','blind',true,true,'L''algorithme de toto','0',2,9),</v>
+      </c>
+      <c r="O62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('L''algorithme de toto'),</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>9</v>
       </c>
@@ -3178,10 +3500,10 @@
         <v>88</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>144</v>
@@ -3191,14 +3513,18 @@
       </c>
       <c r="J63" s="1">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K63" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(62,'le sang du christ','blessed',true,true,'Tu ne trouves pas ça assez catholique ?','0',3,9),</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+        <v>(62,'le sang du christ','blessed',true,true,'Tu ne trouves pas ça assez catholique ?','0',1,9),</v>
+      </c>
+      <c r="O63" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Tu ne trouves pas ça assez catholique ?'),</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>9</v>
       </c>
@@ -3212,10 +3538,10 @@
         <v>72</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>145</v>
@@ -3224,15 +3550,19 @@
         <v>0</v>
       </c>
       <c r="J64" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="K64" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>(63,'valium','sleep',true,true,'Bienvenue le marchand de sable','0',3,9),</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O64" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Bienvenue le marchand de sable'),</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>9</v>
       </c>
@@ -3246,27 +3576,31 @@
         <v>81</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I65" s="1">
         <v>0</v>
       </c>
       <c r="J65" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="K65" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(64,'bezoard','heal poisoned',true,true,'Accumulations très denses de matière partiellement digérée ou non digérée pouvant se coincer dans l''estomac ou les intestins','0',2,9),</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+        <v>(64,'bezoard','heal poisoned',true,true,'Accumulations très denses de matière partiellement digérée ou non digérée pouvant se coincer dans l''estomac ou les intestins','0',3,9),</v>
+      </c>
+      <c r="O65" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Accumulations très denses de matière partiellement digérée ou non digérée pouvant se coincer dans l''estomac ou les intestins'),</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>9</v>
       </c>
@@ -3280,10 +3614,10 @@
         <v>84</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>146</v>
@@ -3292,15 +3626,19 @@
         <v>0</v>
       </c>
       <c r="J66" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="K66" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>(65,'collyre','heal blind',true,true,'Lorsque vous êtes aveugles, bien viser les yeux','0',1,9),</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O66" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Lorsque vous êtes aveugles, bien viser les yeux'),</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>9</v>
       </c>
@@ -3314,10 +3652,10 @@
         <v>82</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>147</v>
@@ -3326,15 +3664,19 @@
         <v>0</v>
       </c>
       <c r="J67" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="K67" s="1" t="str">
-        <f t="shared" ref="K67:K73" ca="1" si="3">"("&amp;C67&amp;",'"&amp;D67&amp;"','"&amp;E67&amp;"',"&amp;F67&amp;","&amp;G67&amp;",'"&amp;H67&amp;"','"&amp;I67&amp;"',"&amp;J67&amp;","&amp;B67&amp;"),"</f>
-        <v>(66,'schneck','heal stunt',true,true,'Très bon pain aux raisins de Moselle','0',3,9),</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K67:K72" ca="1" si="4">"("&amp;C67&amp;",'"&amp;D67&amp;"','"&amp;E67&amp;"',"&amp;F67&amp;","&amp;G67&amp;",'"&amp;H67&amp;"','"&amp;I67&amp;"',"&amp;J67&amp;","&amp;B67&amp;"),"</f>
+        <v>(66,'schneck','heal stunt',true,true,'Très bon pain aux raisins de Moselle','0',1,9),</v>
+      </c>
+      <c r="O67" s="1" t="str">
+        <f t="shared" ref="O67:O89" si="5">"('"&amp;H67&amp;"'),"</f>
+        <v>('Très bon pain aux raisins de Moselle'),</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>9</v>
       </c>
@@ -3348,27 +3690,31 @@
         <v>83</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I68" s="1">
         <v>0</v>
       </c>
       <c r="J68" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="K68" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>(67,'epinephrine','heal sleep',true,true,'Impécable pour l''hyper tension','0',3,9),</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="4"/>
+        <v>(67,'epinephrine','heal sleep',true,true,'Impécable pour l''hyper tension','0',1,9),</v>
+      </c>
+      <c r="O68" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>('Impécable pour l''hyper tension'),</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>9</v>
       </c>
@@ -3379,13 +3725,13 @@
         <v>183</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>182</v>
@@ -3394,15 +3740,19 @@
         <v>0</v>
       </c>
       <c r="J69" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="K69" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>(68,'vega missile','*2 vitesse d''attaque',true,true,'Pour être satélisé','0',2,9),</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="4"/>
+        <v>(68,'vega missile','*2 vitesse d''attaque',true,true,'Pour être satélisé','0',3,9),</v>
+      </c>
+      <c r="O69" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>('Pour être satélisé'),</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>9</v>
       </c>
@@ -3413,13 +3763,13 @@
         <v>181</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>184</v>
@@ -3428,15 +3778,19 @@
         <v>0</v>
       </c>
       <c r="J70" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="K70" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>(69,'red boule','/2 vitesse d''attaque',true,true,'La contre façons','0',3,9),</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="4"/>
+        <v>(69,'red boule','/2 vitesse d''attaque',true,true,'La contre façons','0',2,9),</v>
+      </c>
+      <c r="O70" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>('La contre façons'),</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>9</v>
       </c>
@@ -3450,10 +3804,10 @@
         <v>178</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>185</v>
@@ -3462,15 +3816,19 @@
         <v>0</v>
       </c>
       <c r="J71" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="K71" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>(70,'bipbip','*2 vitesse de déplacement',true,true,'A consommer dans un Saddam Usain bol','0',1,9),</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="4"/>
+        <v>(70,'bipbip','*2 vitesse de déplacement',true,true,'A consommer dans un Saddam Usain bol','0',3,9),</v>
+      </c>
+      <c r="O71" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>('A consommer dans un Saddam Usain bol'),</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>9</v>
       </c>
@@ -3484,10 +3842,10 @@
         <v>177</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>186</v>
@@ -3496,15 +3854,19 @@
         <v>0</v>
       </c>
       <c r="J72" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="K72" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>(71,'le coyotte','/2 vitesse de déplacement',true,true,'Le seul loup avec un frain à main','0',2,9),</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="4"/>
+        <v>(71,'le coyotte','/2 vitesse de déplacement',true,true,'Le seul loup avec un frain à main','0',3,9),</v>
+      </c>
+      <c r="O72" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>('Le seul loup avec un frain à main'),</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>151</v>
       </c>
@@ -3521,10 +3883,10 @@
         <v>153</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="I73" s="1">
         <v>0</v>
@@ -3533,14 +3895,592 @@
         <v>1</v>
       </c>
       <c r="K73" s="1" t="str">
-        <f>"("&amp;C73&amp;",'"&amp;D73&amp;"','"&amp;E73&amp;"',"&amp;F73&amp;","&amp;G73&amp;",'"&amp;H73&amp;"','"&amp;I73&amp;"',"&amp;J73&amp;","&amp;B73&amp;")"</f>
-        <v>(72,'Boubourse','stock money',false,true,'','0',1,10)</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+        <f>"("&amp;C73&amp;",'"&amp;D73&amp;"','"&amp;E73&amp;"',"&amp;F73&amp;","&amp;G73&amp;",'"&amp;H73&amp;"','"&amp;I73&amp;"',"&amp;J73&amp;","&amp;B73&amp;"),"</f>
+        <v>(72,'Boubourse','stock money',false,true,'','0',1,10),</v>
+      </c>
+      <c r="O73" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>(''),</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B74" s="1">
+        <v>11</v>
+      </c>
+      <c r="C74" s="6">
+        <v>73</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0</v>
+      </c>
       <c r="K74" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT(K2:K73)</f>
-        <v>(1,'fusil Lorrain','+1 force',true,true,'Fusil légendaire de Lorraine, capable d"envoyer des fuseaux a 50 km/h','0',1,1),(2,'paprik''arme','+2 force',true,true,'Le piment le plus fort de tous les héros','0',2,1),(3,'lance saucisse','+3 force',true,true,'De son vrai nom große würst','0',3,1),(4,'Patator','+4 force',true,true,'Le traditionnel lance patate Russe utiliser par Poutine en Ukraine','0',4,1),(5,'arbalais','+5 force',true,true,'Monsieur Potter, merci de ramener le balais','0',5,1),(6,'la boule de petoncle','+6 force',true,true,'Célébre boule du comédon Cousteau','0',6,1),(7,'pestolet','+7 force',true,true,'Ajouter du basilic, de l"ail et des François pignon et du parmesan on obtient cette arme légendaire','0',7,1),(8,'couperet bretzel','+2 force',true,true,'Apparut en Alsace pendant la période des spaetzle du cervelas et de la choucroute en l"an 69','0',1,2),(9,'rôtisseur','+4 force',true,true,'Célèbre arme du colonel Sander','0',2,2),(10,'la pelle forte','+6 force',true,true,'Merci Berny pour votre invention autoroutiere','0',3,2),(11,'batte ail','+8 force',true,true,'Arme favorite de Blade','0',4,2),(12,'la fausse croix','+10 force',true,true,'Arme légendaire de nazareth','0',5,2),(13,'poing chope','+1 force',true,true,'Mélange entre chopine et poing ricain','0',2,3),(14,'dague Ober','+2 force',true,true,'Mais qui l"a mise à l"envers ?','0',3,3),(15,'couilletau','+3 force',true,true,'Crustacé qui sent la marais','0',4,3),(16,'dardvador','+4 force',true,true,'Aussi rouge que le sabre','0',5,3),(17,'porc table','+5 force',true,true,'Mi porc, mi ours, mi homme,,, Je m"égare il est seulement mi table','0',6,3),(18,'jason tatane','+8 force',true,true,'Pour les puristes de la bagarre','0',7,3),(19,'bonnet m','+1 agilité',true,true,'Le sugar daddy cool des chapias','0',1,4),(20,'casquette a pointe','+2 agilité',true,true,'Célèbre casquette germanique, utilisée dans les concours de lancer de pomme','0',2,4),(21,'k-lotte','+3 agilité',true,true,'Arme célèbre de la confrérie Lopez, 100% cuivre','0',3,4),(22,'kippab','+4 agilité',true,true,'Salade tomate oignon du chapeau ','0',4,4),(23,'baie raie','+5 agilité',true,true,'Le fruit qui résume bien la situation " l"abricôt"','0',5,4),(24,'plas''thon','+1 agilité',true,true,'Construite en boite de petit navire','0',2,5),(25,'plas''tèque','+2 agilité',true,true,'Manger 5 fruits et légumes par jours','0',3,5),(26,'côte de beauf','+3 agilité',true,true,'Parfait pour les soirées tuning','0',4,5),(27,'l''ainée','+4 agilité',true,true,'Allez voir sur wikipédia','0',5,5),(28,'pull ovaire','+5 agilité',true,true,'Bien mieu que le col roulé','0',6,5),(29,'gants stères','+1 agilité',true,true,'Parfait pour ramasser le bois','0',1,6),(30,'mie Teigne','+2 agilité',true,true,'Boulanger tétu de renommé','0',2,6),(31,'bollet rouge','+3 agilité',true,true,'Célébre coiffe du comédon Cousteau','0',3,6),(32,'croque mie teigne','+4 agilité',true,true,'Croque monsieur du boulanger','0',4,6),(33,'gant de toilette','+5 agilité',true,true,'Progéniture de Servietski','0',5,6),(34,'bretelle','+1 agilité',true,true,'Et porte jartelle','0',2,7),(35,'bas thon','+2 agilité',true,true,'Le leggings du comédon Cousteau','0',3,7),(36,'benne laden','+3 agilité',true,true,'Enfilez vos deux jambes dedans','0',4,7),(37,'beer muda','+4 agilité',true,true,'Mi jaune mi blanc','0',5,7),(38,'fûtal','+5 agilité',true,true,'Parfait pour protéger votre trou du fût','0',6,7),(39,'crocs','+1 agilité',true,true,'Style hollandais, chaussette claquette','0',1,8),(40,'bas bouche','+2 agilité',true,true,'Babooshka, babooshka, babooshka ja, ja','0',2,8),(41,'adaddas','+3 agilité',true,true,'Des contre façons efficaces','0',3,8),(42,'les talons','+4 agilité',true,true,'Dixit the Italian Stallion','0',4,8),(43,'musse tongue','+5 agilité',true,true,'Aussi rapide que l''original','0',5,8),(44,'pinte','+2 esquive',true,true,'Je vous remettrais bien la petite sœur?','0',2,9),(45,'tord boyaux','+50 mana / -50 pv',true,true,'Très utile pour les nœuds de huit','0',1,9),(46,'Sheba','+50 pv / -50 mana',true,true,'Alain sheba, un gros nul','0',2,9),(47,'shot','+25 pv',true,true,'Boisson chaude de charlie Sheen','0',1,9),(48,'grogs','+50 pv',true,true,'Recette mythique des mère grand','0',1,9),(49,'polonium','+25 mana',true,true,'Très prisé en Russie actuellement','0',3,9),(50,'muscat death','-50 mana',true,true,'Tu bois tu meurts','0',2,9),(51,'houmous tache','-2 dodge',true,true,'Repas favoris de Staline','0',2,9),(52,'tsar tziki','-5 dodge',true,true,'Sauce favorite de Lenine','0',3,9),(53,'potion magique','/2 magic',true,true,'Remet les idées fixes','0',2,9),(54,'asperule','/2 pv',true,true,'C''est comme le jagermeister mais en plus mauvais','0',2,9),(55,'sauce dallas','*2 magic',true,true,'Sur les boulettes ?','0',3,9),(56,'sauce biggy','*2 force',true,true,'Avec ou sans frites ?','0',1,9),(57,'sauce hannibal','*2 pv',true,true,'Pour les Lecter vegan','0',2,9),(58,'sauce blanche','*2 dodge',true,true,'Très populaire chez les albinos du RN','0',1,9),(59,'barbie turique','poisoned',true,true,'Le Ken lubrique','0',2,9),(60,'amnesia','stunt',true,true,'A ne surtout pas fumer','0',1,9),(61,'algoflash','blind',true,true,'L''algorithme de toto','0',3,9),(62,'le sang du christ','blessed',true,true,'Tu ne trouves pas ça assez catholique ?','0',3,9),(63,'valium','sleep',true,true,'Bienvenue le marchand de sable','0',3,9),(64,'bezoard','heal poisoned',true,true,'Accumulations très denses de matière partiellement digérée ou non digérée pouvant se coincer dans l''estomac ou les intestins','0',2,9),(65,'collyre','heal blind',true,true,'Lorsque vous êtes aveugles, bien viser les yeux','0',1,9),(66,'schneck','heal stunt',true,true,'Très bon pain aux raisins de Moselle','0',3,9),(67,'epinephrine','heal sleep',true,true,'Impécable pour l''hyper tension','0',3,9),(68,'vega missile','*2 vitesse d''attaque',true,true,'Pour être satélisé','0',2,9),(69,'red boule','/2 vitesse d''attaque',true,true,'La contre façons','0',3,9),(70,'bipbip','*2 vitesse de déplacement',true,true,'A consommer dans un Saddam Usain bol','0',1,9),(71,'le coyotte','/2 vitesse de déplacement',true,true,'Le seul loup avec un frain à main','0',2,9),(72,'Boubourse','stock money',false,true,'','0',1,10)</v>
+        <f t="shared" ref="K74:K94" si="6">"("&amp;C74&amp;",'"&amp;D74&amp;"','"&amp;E74&amp;"',"&amp;F74&amp;","&amp;G74&amp;",'"&amp;H74&amp;"','"&amp;I74&amp;"',"&amp;J74&amp;","&amp;B74&amp;"),"</f>
+        <v>(73,'houblon','',false,false,'','0',0,11),</v>
+      </c>
+      <c r="O74" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>(''),</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B75" s="1">
+        <v>11</v>
+      </c>
+      <c r="C75" s="1">
+        <v>74</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0</v>
+      </c>
+      <c r="K75" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>(74,'fut','',false,false,'','0',0,11),</v>
+      </c>
+      <c r="O75" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>(''),</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B76" s="1">
+        <v>11</v>
+      </c>
+      <c r="C76" s="7">
+        <v>75</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>(75,'sachet','',false,false,'','0',0,11),</v>
+      </c>
+      <c r="O76" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>(''),</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B77" s="1">
+        <v>12</v>
+      </c>
+      <c r="C77" s="1">
+        <v>76</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0</v>
+      </c>
+      <c r="K77" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>(76,'mur','',false,false,'','0',0,12),</v>
+      </c>
+      <c r="O77" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>(''),</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B78" s="1">
+        <v>12</v>
+      </c>
+      <c r="C78" s="7">
+        <v>77</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0</v>
+      </c>
+      <c r="K78" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>(77,'banc','',false,false,'','0',0,12),</v>
+      </c>
+      <c r="O78" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>(''),</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B79" s="1">
+        <v>12</v>
+      </c>
+      <c r="C79" s="1">
+        <v>78</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0</v>
+      </c>
+      <c r="K79" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>(78,'table','',false,false,'','0',0,12),</v>
+      </c>
+      <c r="O79" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>(''),</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B80" s="1">
+        <v>12</v>
+      </c>
+      <c r="C80" s="7">
+        <v>79</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0</v>
+      </c>
+      <c r="K80" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>(79,'fleurs','',false,false,'','0',0,12),</v>
+      </c>
+      <c r="O80" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>(''),</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B81" s="1">
+        <v>12</v>
+      </c>
+      <c r="C81" s="1">
+        <v>80</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0</v>
+      </c>
+      <c r="K81" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>(80,'rochers','',false,false,'','0',0,12),</v>
+      </c>
+      <c r="O81" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>(''),</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B82" s="1">
+        <v>12</v>
+      </c>
+      <c r="C82" s="7">
+        <v>81</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0</v>
+      </c>
+      <c r="K82" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>(81,'lampadaire','',false,false,'','0',0,12),</v>
+      </c>
+      <c r="O82" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>(''),</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B83" s="1">
+        <v>12</v>
+      </c>
+      <c r="C83" s="1">
+        <v>82</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0</v>
+      </c>
+      <c r="J83" s="1">
+        <v>0</v>
+      </c>
+      <c r="K83" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>(82,'statue','',false,false,'','0',0,12),</v>
+      </c>
+      <c r="O83" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>(''),</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B84" s="1">
+        <v>12</v>
+      </c>
+      <c r="C84" s="7">
+        <v>83</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1">
+        <v>0</v>
+      </c>
+      <c r="K84" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>(83,'tente','',false,false,'','0',0,12),</v>
+      </c>
+      <c r="O84" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>(''),</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B85" s="1">
+        <v>12</v>
+      </c>
+      <c r="C85" s="1">
+        <v>84</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0</v>
+      </c>
+      <c r="K85" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>(84,'fontaine','',false,false,'','0',0,12),</v>
+      </c>
+      <c r="O85" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>(''),</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B86" s="1">
+        <v>12</v>
+      </c>
+      <c r="C86" s="7">
+        <v>85</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0</v>
+      </c>
+      <c r="K86" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>(85,'petite maison','',false,false,'','0',0,12),</v>
+      </c>
+      <c r="O86" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>(''),</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B87" s="1">
+        <v>12</v>
+      </c>
+      <c r="C87" s="1">
+        <v>86</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0</v>
+      </c>
+      <c r="K87" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>(86,'mur de berlin','',false,false,'','0',0,12),</v>
+      </c>
+      <c r="O87" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>(''),</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B88" s="1">
+        <v>12</v>
+      </c>
+      <c r="C88" s="7">
+        <v>87</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0</v>
+      </c>
+      <c r="J88" s="1">
+        <v>0</v>
+      </c>
+      <c r="K88" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>(87,'seau','',false,false,'','0',0,12),</v>
+      </c>
+      <c r="O88" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>(''),</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B89" s="1">
+        <v>12</v>
+      </c>
+      <c r="C89" s="1">
+        <v>88</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0</v>
+      </c>
+      <c r="J89" s="1">
+        <v>0</v>
+      </c>
+      <c r="K89" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>(88,'clôture','',false,false,'','0',0,12),</v>
+      </c>
+      <c r="O89" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>(''),</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K90" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>(,'','',,,'','',,),</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K91" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>(,'','',,,'','',,),</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K92" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>(,'','',,,'','',,),</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K93" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>(,'','',,,'','',,),</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K94" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>(,'','',,,'','',,),</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K95" s="1" t="str">
+        <f>"("&amp;C95&amp;",'"&amp;D95&amp;"','"&amp;E95&amp;"',"&amp;F95&amp;","&amp;G95&amp;",'"&amp;H95&amp;"','"&amp;I95&amp;"',"&amp;J95&amp;","&amp;B95&amp;")"</f>
+        <v>(,'','',,,'','',,)</v>
       </c>
     </row>
   </sheetData>
